--- a/experiment_results/backup_result/worst_case/BankAccountTP/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/BankAccountTP/2wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="32">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -507,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -539,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -571,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -603,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -635,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -667,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -699,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -731,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -763,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -795,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -827,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -859,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -891,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -923,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -955,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -987,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1019,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1051,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1083,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -1115,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1147,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1179,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1256,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1288,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1320,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1352,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1384,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1416,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1448,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1480,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1512,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1544,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1576,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1608,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1640,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1672,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1704,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1736,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1768,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1800,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1832,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1864,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1896,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1928,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -2005,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2037,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2069,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2101,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2133,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2165,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2197,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2229,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2261,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2293,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2325,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2357,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2389,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2421,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2453,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2485,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2517,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -2549,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2581,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2613,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2645,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2677,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -2754,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2786,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2818,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2850,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2882,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2914,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2946,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2978,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3010,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3042,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3074,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3106,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3138,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3170,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3202,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3234,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -3266,7 +3268,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -3298,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3330,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3362,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3394,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3426,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -3503,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3529,13 +3531,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3567,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3593,13 +3595,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3631,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3663,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3695,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3727,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3753,13 +3755,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3785,13 +3787,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3823,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3855,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3881,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3919,7 +3921,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3945,13 +3947,13 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3977,13 +3979,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4015,7 +4017,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4047,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4079,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -4111,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4137,13 +4139,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4169,13 +4171,13 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -4252,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4284,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4316,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4348,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4380,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -4412,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4444,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4476,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4508,7 +4510,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4540,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4572,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4604,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4636,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4668,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4700,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4732,7 +4734,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4764,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4796,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4828,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -4860,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4892,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -4924,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -5001,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5033,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5065,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5097,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5129,7 +5131,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5161,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5193,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5225,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5257,7 +5259,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5289,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5321,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5353,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5385,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5417,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5449,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5481,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -5513,7 +5515,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -5545,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5577,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -5609,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5641,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5673,10 +5675,1508 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>48</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>76</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>76</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>46</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>46</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>63</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>67</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>48</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>48</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
       </c>
       <c r="H23">
         <v>76</v>
@@ -5750,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5782,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5814,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5846,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5878,7 +7378,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5910,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5942,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5974,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6006,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6038,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6070,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6102,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6134,7 +7634,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6166,7 +7666,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6198,7 +7698,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -6230,7 +7730,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -6262,7 +7762,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -6294,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6326,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -6358,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6390,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6422,7 +7922,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -6499,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6531,7 +8031,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6563,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6595,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6627,7 +8127,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6659,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6691,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6723,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6755,7 +8255,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6787,7 +8287,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6819,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6851,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6883,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6915,7 +8415,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6947,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6979,7 +8479,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7011,7 +8511,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7043,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7075,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -7107,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7139,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7171,7 +8671,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -7248,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7280,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7312,7 +8812,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -7344,7 +8844,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7376,7 +8876,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -7408,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7440,7 +8940,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -7472,7 +8972,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7504,7 +9004,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -7536,7 +9036,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7568,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7600,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7632,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7664,7 +9164,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -7696,7 +9196,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7728,7 +9228,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7760,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7792,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7824,7 +9324,7 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -7856,7 +9356,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -7888,7 +9388,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -7920,7 +9420,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -7997,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8020,16 +9520,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8052,16 +9552,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -8090,10 +9590,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8122,10 +9622,10 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -8157,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8180,16 +9680,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8212,16 +9712,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8247,13 +9747,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -8285,7 +9785,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8308,16 +9808,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8340,16 +9840,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8372,16 +9872,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8404,16 +9904,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8445,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -8468,16 +9968,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -8506,10 +10006,10 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -8532,16 +10032,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8564,16 +10064,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -8596,16 +10096,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8628,16 +10128,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8660,16 +10160,16 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
         <v>20</v>
-      </c>
-      <c r="C23">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>47</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -8746,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -8778,7 +10278,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -8810,7 +10310,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -8842,7 +10342,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -8874,7 +10374,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -8906,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -8938,7 +10438,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -8970,7 +10470,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9002,7 +10502,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -9034,7 +10534,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -9066,7 +10566,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -9098,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -9130,7 +10630,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -9162,7 +10662,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -9194,7 +10694,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9226,7 +10726,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -9258,7 +10758,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -9290,7 +10790,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -9322,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -9354,7 +10854,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -9386,7 +10886,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9418,7 +10918,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -9495,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -9518,16 +11018,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -9550,16 +11050,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -9582,16 +11082,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -9614,16 +11114,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -9646,16 +11146,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -9678,16 +11178,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -9710,16 +11210,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9742,16 +11242,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -9774,16 +11274,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -9815,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9847,7 +11347,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -9870,16 +11370,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -9902,16 +11402,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -9934,16 +11434,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -9966,16 +11466,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -9998,16 +11498,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10030,16 +11530,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10062,16 +11562,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -10103,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -10126,16 +11626,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10158,16 +11658,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -10244,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10267,16 +11767,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -10299,16 +11799,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -10331,16 +11831,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -10363,16 +11863,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -10395,16 +11895,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -10427,16 +11927,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -10459,16 +11959,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -10491,16 +11991,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -10523,16 +12023,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -10564,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -10596,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -10619,16 +12119,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -10651,16 +12151,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -10683,16 +12183,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10715,16 +12215,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -10747,16 +12247,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10779,16 +12279,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10811,16 +12311,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -10852,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -10875,16 +12375,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10907,16 +12407,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -10993,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11025,7 +12525,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -11057,7 +12557,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11089,7 +12589,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -11121,7 +12621,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -11153,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11185,7 +12685,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -11217,7 +12717,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11249,7 +12749,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -11281,7 +12781,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -11313,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11345,7 +12845,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11377,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -11409,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -11441,7 +12941,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11473,7 +12973,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -11505,7 +13005,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -11537,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11569,7 +13069,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -11601,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -11633,7 +13133,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -11665,7 +13165,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
